--- a/DataDict/Allocation/Template_Allocation_data_dictionary_WaDE_Oct2020.xlsx
+++ b/DataDict/Allocation/Template_Allocation_data_dictionary_WaDE_Oct2020.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adela\OneDrive\Documents\MappingStatesDataToWaDE2.0\DataDict\Allocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\DataDict\Allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0033A88-7CAA-4340-9318-2528E8A02320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E6028-68DC-40F3-A723-F3B731393BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{72C05CBC-82A9-4295-85A4-76EE06FFC478}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="10" r:id="rId1"/>
     <sheet name="Organizations" sheetId="6" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="WaterSources" sheetId="4" r:id="rId4"/>
-    <sheet name="Methods" sheetId="7" r:id="rId5"/>
+    <sheet name="Methods" sheetId="7" r:id="rId4"/>
+    <sheet name="WaterSources" sheetId="4" r:id="rId5"/>
     <sheet name="Sites" sheetId="5" r:id="rId6"/>
     <sheet name="Allocation_Amounts" sheetId="2" r:id="rId7"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="236">
   <si>
     <t>OrganizationName</t>
   </si>
@@ -101,9 +101,6 @@
     <t>An indicator of data confidence, should be a confidence interval (e.g. 90%, 50%, etc.)</t>
   </si>
   <si>
-    <t>Data provider's unique identifier for the site variable, can be alphanumeric</t>
-  </si>
-  <si>
     <t>USGSSiteID</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>EPSGCodeCV</t>
   </si>
   <si>
-    <t>EPSG:4326</t>
-  </si>
-  <si>
-    <t>EPSG Code for projection, with a preference for WGS_1984, EPSG of 4326</t>
-  </si>
-  <si>
     <t>CoordinateAccuracy</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>CropTypeCV</t>
   </si>
   <si>
-    <t>PowerGeneratedGWh</t>
-  </si>
-  <si>
     <t>PopulationServed</t>
   </si>
   <si>
@@ -197,12 +185,6 @@
     <t>County</t>
   </si>
   <si>
-    <t>LivestockServed</t>
-  </si>
-  <si>
-    <t>LivestockSpeciesCV</t>
-  </si>
-  <si>
     <t xml:space="preserve">AggregationInterval </t>
   </si>
   <si>
@@ -227,15 +209,6 @@
     <t>Water quality indicator(s) for the site-specific variable amount such as fresh, saline, mixed quality, etc.  Full list available here: http://vocabulary.westernstateswater.org/waterqualityindicator/.  Append if needed.</t>
   </si>
   <si>
-    <t>the water source name as in the data provider record</t>
-  </si>
-  <si>
-    <t>Source id as used in the data provider</t>
-  </si>
-  <si>
-    <t>The source type(s) of the site-specific variable amount (e.g., surface water, groundwater, mixed sources, reuse, etc).  Full list available here: http://vocabulary.westernstateswater.org/watersourcetype/.  Append here if needed.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -275,33 +248,9 @@
     <t>SiteTypeCV</t>
   </si>
   <si>
-    <t>The data are accurate to +/- x of a second of a degree (using a differentially corrected GPS)</t>
-  </si>
-  <si>
-    <t>From a map? GPS? Where coordinate from? Full list available at: http://vocabulary.westernstateswater.org/coordinatemethod/.  Append if needed.</t>
-  </si>
-  <si>
     <t>The Geographic Names Information System (GNIS), developed by the U.S. Geological Survey (USGS) in cooperation with the U.S. Board on Geographic Names (BGN), contains information about the official names for places, features, and areas in the 50 States, the District of Columbia, the territories and outlying areas of the United States, including Antarctica. It is the geographic names component of The National Map. The BGN maintains working relationships with State names authorities to cooperate in achieving the standardization of geographic names.</t>
   </si>
   <si>
-    <t>Latitude coordinate to six significant digits, WGS 84. Note: these can be the centroid of a PLSS Section DMS - with six significant figures. Seconds to 100ths of a second.</t>
-  </si>
-  <si>
-    <t>Longitude coordinate to six significant digits, WGS 84. Note: these can be the centroid of a PLSS Section DMS - with six significant figures. Seconds to 100ths of a second.</t>
-  </si>
-  <si>
-    <t>Whether or not the point location is indexed to the USGS NHD network.  List available at: http://vocabulary.westernstateswater.org/nhdnetworkstatus/.  Append if needed.</t>
-  </si>
-  <si>
-    <t>NHD Product that is used for the indexing. Should be NHDPlus V1, NHDPlus V2, NHD Med Res, or NHD High Res.  List available at: http://vocabulary.westernstateswater.org/nhdproduct/.  Append if needed.</t>
-  </si>
-  <si>
-    <t>Name of the POD site if available.</t>
-  </si>
-  <si>
-    <t>A term that describes the site type.  Available list at: http://vocabulary.westernstateswater.org/sitetype/.  Append if needed.</t>
-  </si>
-  <si>
     <t>A two digit code for each US state.  List available at: http://vocabulary.westernstateswater.org/states/.  Append if needed.</t>
   </si>
   <si>
@@ -335,9 +284,6 @@
     <t>This is a subcategorization of the aggregated variable. This allows the user to specify not only the general category of water data, but also a more specific categorization. For example, for a subcategorization of water supply, the variable would be [AggregatedWaterSupply, Reservoir]. For a subcategorization of water withdrawal, the variable would be [AggregatedWithdrawal, Irrigation]. Other examples: [AggregatedConsumptiveUse, Irrigation], [AggregatedReturnFlow, Discharge], etc.  Full list available here: http://vocabulary.westernstateswater.org/variablespecific/.  Append if needed.</t>
   </si>
   <si>
-    <t>Email to contact person.</t>
-  </si>
-  <si>
     <t>Name of the contact person</t>
   </si>
   <si>
@@ -353,9 +299,6 @@
     <t>A hyperlink back to the organization's website. Include https:// header and trailing forward slash</t>
   </si>
   <si>
-    <t>State name where the organization belongs to</t>
-  </si>
-  <si>
     <t>a unique digital object identifier into the original dataset</t>
   </si>
   <si>
@@ -365,9 +308,6 @@
     <t>GWh to be generated by the aggregated variable amount, if thermoelectric is a specified beneficial use</t>
   </si>
   <si>
-    <t>UnitCV</t>
-  </si>
-  <si>
     <t>Adel Abdallah, WaDE Program Manager</t>
   </si>
   <si>
@@ -392,9 +332,6 @@
     <t>stores references to the metadata tables and a record of data that often changes over time</t>
   </si>
   <si>
-    <t>The number of livestock the water rights is watering</t>
-  </si>
-  <si>
     <t>corn, alfalfa, wheat</t>
   </si>
   <si>
@@ -417,15 +354,6 @@
   </si>
   <si>
     <t>PODorPOUSite</t>
-  </si>
-  <si>
-    <t>In indicator to the Point of Use (POD) or Point of Diversion (POU)</t>
-  </si>
-  <si>
-    <t>A hydrological code or hydrologic unit code </t>
-  </si>
-  <si>
-    <t>USA County</t>
   </si>
   <si>
     <t>SiteNativeURL</t>
@@ -461,9 +389,6 @@
     <t>AllocationVolume_AF</t>
   </si>
   <si>
-    <t>AllocationSDWISIdentifierCV</t>
-  </si>
-  <si>
     <t>AllocationAssociatedWithdrawalSiteIDs</t>
   </si>
   <si>
@@ -515,27 +440,12 @@
     <t>UT</t>
   </si>
   <si>
-    <t>Irrigation</t>
-  </si>
-  <si>
     <t>If the allowcation is excempt(yes), then amount flow, volume, and priority dates  can be NULL.  E.g., This case represents groundwater rights in Arizona outside the AMA and INA areas</t>
   </si>
   <si>
-    <t>Point specific Well-Known Text (WKT): The GIS objects supported by PostGIS are a superset of the "Simple Features" defined by the OpenGIS Consortium (OGC). PostGIS supports all the objects and functions specified in the OGC "Simple Features for SQL" specification.</t>
-  </si>
-  <si>
     <t>(ex link)</t>
   </si>
   <si>
-    <t>A % indicator of data coverage (i.e., spatial coverage or completeness of the data)</t>
-  </si>
-  <si>
-    <t>Cattle</t>
-  </si>
-  <si>
-    <t>Type of livestock species supplied by the water right.  E.g., cattle, sheep, chicken</t>
-  </si>
-  <si>
     <t>The previous water right identifier for records, if it had one.</t>
   </si>
   <si>
@@ -560,9 +470,6 @@
     <t>e.g., Water Administration for the State of Colorado</t>
   </si>
   <si>
-    <t>e.g., Utah</t>
-  </si>
-  <si>
     <t>e.g., Allocation</t>
   </si>
   <si>
@@ -572,30 +479,9 @@
     <t>e.g., 1</t>
   </si>
   <si>
-    <t>e.g., Year</t>
-  </si>
-  <si>
-    <t>e.g., Average</t>
-  </si>
-  <si>
-    <t>e.g., CFS</t>
-  </si>
-  <si>
-    <t>e.g., 10</t>
-  </si>
-  <si>
-    <t>e.g., WaterYear</t>
-  </si>
-  <si>
-    <t>e.g., 17839</t>
-  </si>
-  <si>
     <t>e.g., Jacks Creek</t>
   </si>
   <si>
-    <t>e.g.,  Surface Water</t>
-  </si>
-  <si>
     <t>e.g., Fresh</t>
   </si>
   <si>
@@ -669,13 +555,217 @@
   </si>
   <si>
     <t>October, 2020</t>
+  </si>
+  <si>
+    <t>Email information for orgaization contact person.</t>
+  </si>
+  <si>
+    <t>e.g., CO</t>
+  </si>
+  <si>
+    <t>Two digit state abbreviation where the organization is.</t>
+  </si>
+  <si>
+    <t>AmountUnitCV</t>
+  </si>
+  <si>
+    <t>MaximumAmountUnitCV</t>
+  </si>
+  <si>
+    <t>The allocation unit of measurment used for maxium limits (e.g., CFS, AF, etc).</t>
+  </si>
+  <si>
+    <t>e..g, Year</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>WaterYear</t>
+  </si>
+  <si>
+    <t>An indicator of data coverage (i.e., spatial coverage or completeness of the data)</t>
+  </si>
+  <si>
+    <t>The water source native ID used by the data provider.</t>
+  </si>
+  <si>
+    <t>The water source name as recognized by the data provider.</t>
+  </si>
+  <si>
+    <t>The high level description of the water source type (e.g., surface water, groundwater, mixed, reuse, etc.)</t>
+  </si>
+  <si>
+    <t>The GIS objects / shape written in Well-Known Text (WKT) format.</t>
+  </si>
+  <si>
+    <t>e.g, 17839</t>
+  </si>
+  <si>
+    <t>Latitude coordinate of the data site.  Up to six significant digits in WGS 84.</t>
+  </si>
+  <si>
+    <t>Longitude coordinate of the data site.  Up to six significant digits in WGS 84.</t>
+  </si>
+  <si>
+    <t>The high level description of the site type recognized by the data provider (e.g., well, spring, reservoir, river, ditch, etc.).</t>
+  </si>
+  <si>
+    <t>Recognized name of the data site by the data provider.</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the data provider to distinguish the data site in the source data set.</t>
+  </si>
+  <si>
+    <t>Description of the coordinate method used to generate the GIS location portion of the data.</t>
+  </si>
+  <si>
+    <t>WaDe identifier term if the data site is a point of diversion (POD), place of use (POU), or a gage station.  Used for linking sites under similar records.</t>
+  </si>
+  <si>
+    <t>Description of the data accuracy.  The data are accurate to +/- x of a second of a degree (using a differentially corrected GPS).</t>
+  </si>
+  <si>
+    <t>EPSG Code for projection used for WaDE (e.g.,  EPSG:4326).</t>
+  </si>
+  <si>
+    <t>The Hydrologic Unit Identifier Code at level 12 of where the data site is located in.</t>
+  </si>
+  <si>
+    <t>The Hydrologic Unit Identifier Code at level 8 of where the data site is located in.</t>
+  </si>
+  <si>
+    <t>Name of the USA county the data site is located in.</t>
+  </si>
+  <si>
+    <t>Unique identifier code / ID used by the USGS to distinguish the data site in the source data set.  Typically separate from SiteNativeID.</t>
+  </si>
+  <si>
+    <t>USGS NHD network status identifier term (if available).</t>
+  </si>
+  <si>
+    <t>NHD product used for indexing (if available) (e.g., NHDPlus V1, NHDPlus V2, NHD Med Res, NHD High Res, etc).</t>
+  </si>
+  <si>
+    <t>AllocationBasisCV</t>
+  </si>
+  <si>
+    <t>AllocationCommunityWaterSupplySystem</t>
+  </si>
+  <si>
+    <t>AllocationCropDutyAmount</t>
+  </si>
+  <si>
+    <t>AllocationExpirationDateID</t>
+  </si>
+  <si>
+    <t>AllocationLegalStatusCV</t>
+  </si>
+  <si>
+    <t>AllocationOwner</t>
+  </si>
+  <si>
+    <t>AllocationTypeCV</t>
+  </si>
+  <si>
+    <t>BeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>GeneratedPowerCapacityMW</t>
+  </si>
+  <si>
+    <t>AllocationPriorityDate</t>
+  </si>
+  <si>
+    <t>Date given to the water right by the state. Date the water right become legal.  Format of MM/DD/YYYY.</t>
+  </si>
+  <si>
+    <t>Description of whether this water right is based on water withdrawals/diversion or consumptive use/depletion amount.</t>
+  </si>
+  <si>
+    <t>If the use is municipal, the data provider can add the SDWIS identifier for the CWS. Only for site specific data. Leave it null for aggregate data</t>
+  </si>
+  <si>
+    <t>Crop Duty amount. The number of acres of land that is irrigated for the complete growth of a crop by supplying 1-meter cubes per second of water continuously throughout the crop.</t>
+  </si>
+  <si>
+    <t>Expiration date the water right expires (only really applies if the right is a temporary one).</t>
+  </si>
+  <si>
+    <t>The state recognized legal status of the water right (e.g., proven, approved, perfected, adjudicated, etc.)</t>
+  </si>
+  <si>
+    <t>Name of the owner / entity with possession of the water right.</t>
+  </si>
+  <si>
+    <t>Description of the type of water right (e.g., Underground Water Claim, Federal Reserved Water Right, etc).</t>
+  </si>
+  <si>
+    <t>Date that this data was published by the data provider to the public.</t>
+  </si>
+  <si>
+    <t>The state recognized stated purpose for the water right (e.g., irrigation, power, etc) (if multiple, provide as a comma separated list).</t>
+  </si>
+  <si>
+    <t>e.g., Withdrawl</t>
+  </si>
+  <si>
+    <t>e.g., Lehi Supply</t>
+  </si>
+  <si>
+    <t>AllocationApplicationDate</t>
+  </si>
+  <si>
+    <t>Foreign key unique identifier to Dates_dim table. Date of the original filing on the water right record. Format in MM/DD/YYYY.</t>
+  </si>
+  <si>
+    <t>e.g., 07/05/1901</t>
+  </si>
+  <si>
+    <t>e.g, 5</t>
+  </si>
+  <si>
+    <t>e.g., 12/31/2052</t>
+  </si>
+  <si>
+    <t>e.g., approved</t>
+  </si>
+  <si>
+    <t>e.g., Fred Johnson</t>
+  </si>
+  <si>
+    <t>e.g., Underground Claim</t>
+  </si>
+  <si>
+    <t>e.g., 07/08/2021</t>
+  </si>
+  <si>
+    <t>e.g., 101</t>
+  </si>
+  <si>
+    <t>e.g., irrigation</t>
+  </si>
+  <si>
+    <t>e.g., 08/01/1902</t>
+  </si>
+  <si>
+    <t>e.g., Irrigation</t>
+  </si>
+  <si>
+    <t>DataPublicationDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,20 +819,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,7 +857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -892,40 +969,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -959,19 +1006,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1033,10 +1067,92 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1046,23 +1162,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1072,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1097,7 +1198,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1113,7 +1213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,7 +1221,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1143,166 +1241,130 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1691,55 +1753,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2403CCCD-12BC-4468-8E1E-FDDA82B7D922}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1748,75 +1810,75 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1836,108 +1898,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E092E-37FC-44C0-9387-B111C2DA4E7B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="22" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="12" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="29" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:8" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="59" t="s">
+      <c r="F1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="73" t="s">
+    </row>
+    <row r="2" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="96" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="93" t="s">
+      <c r="E2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="5"/>
+      <c r="G3" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="5"/>
     </row>
   </sheetData>
@@ -1948,111 +2010,122 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E08C38F-342B-49D5-9FE3-F27BCCD90258}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="21"/>
-    <col min="7" max="7" width="18.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:9" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="83" t="s">
+      <c r="F1" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="G1" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="H1" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="H2" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="50" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="E3" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="F3" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="G3" s="49" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="H3" s="49">
+        <v>10</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2060,433 +2133,445 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="18.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:8" s="44" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="73" t="s">
+      <c r="E2" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+    </row>
+    <row r="3" spans="1:8" s="51" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{E2DD0852-E50B-46D8-BE64-3C36B38AF329}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F72A969-622D-4936-987A-049101D32A6E}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85242FD5-FD52-4C86-8C01-7E742284680E}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="53" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+    <row r="1" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="82" t="s">
+    </row>
+    <row r="3" spans="1:6" s="57" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="B3" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{6BAB099D-8CAB-4219-8262-C0EF07E3DC4E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57FC1D5-7413-4D4B-8F4B-A0DAC5C798A1}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.7109375" style="29"/>
-    <col min="3" max="3" width="17.7109375" style="28"/>
-    <col min="4" max="5" width="17.7109375" style="29"/>
-    <col min="6" max="7" width="17.7109375" style="30"/>
-    <col min="8" max="19" width="17.7109375" style="28"/>
-    <col min="20" max="16384" width="17.7109375" style="13"/>
+    <col min="1" max="1" width="17.6640625" style="26"/>
+    <col min="2" max="3" width="17.6640625" style="25"/>
+    <col min="4" max="5" width="17.6640625" style="26"/>
+    <col min="6" max="6" width="18" style="27" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="85"/>
+    <col min="8" max="18" width="17.6640625" style="25"/>
+    <col min="19" max="19" width="17.6640625" style="62"/>
+    <col min="20" max="20" width="17.6640625" style="25"/>
+    <col min="21" max="16384" width="17.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="18" t="s">
+    <row r="1" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="37" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="S1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="27" t="s">
+      <c r="T1" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="33" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="66" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="38">
+        <v>4326</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="27" t="s">
+      <c r="L3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="65">
+        <v>17060102</v>
+      </c>
+      <c r="N3" s="65">
+        <v>170601</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="27" t="s">
+      <c r="P3" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="P2" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="100" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="98">
-        <v>17060102</v>
-      </c>
-      <c r="N3" s="98">
-        <v>170601</v>
-      </c>
-      <c r="O3" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="P3" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q3" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="Q3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{947F42C7-939D-402D-A083-51E20E619F36}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{B70FFAE4-D379-47CD-B453-F7A3E35E07BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2495,314 +2580,389 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF95F0A-A6D8-4C9F-9AAD-CE9D64114AA9}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="24" style="21" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="15" style="14" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="14" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="14" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="14" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="14" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="14" customWidth="1"/>
-    <col min="20" max="20" width="25.42578125" style="14" customWidth="1"/>
-    <col min="21" max="21" width="29.85546875" style="14" customWidth="1"/>
-    <col min="22" max="22" width="31.85546875" style="14" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="36.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.85546875" style="67" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="20.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="75" customWidth="1"/>
+    <col min="10" max="10" width="34.77734375" style="75" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="30.88671875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="27.21875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" style="75" customWidth="1"/>
+    <col min="16" max="16" width="23" style="75" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="29.88671875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="28.6640625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="23.109375" style="13" customWidth="1"/>
+    <col min="22" max="22" width="20.88671875" style="42" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.44140625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="36.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="13" customWidth="1"/>
+    <col min="29" max="29" width="15.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.109375" style="80" customWidth="1"/>
+    <col min="33" max="33" width="23.109375" style="75" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="42" t="s">
+    <row r="1" spans="1:33" s="67" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="42" t="s">
+      <c r="V1" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="AG1" s="72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="36" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="73"/>
+      <c r="K2" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="42" t="s">
+      <c r="T2" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="W2" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z1" s="64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="44" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="Z2" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC2" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE2" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="78" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="O3" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="P3" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="65" t="s">
+      <c r="Q3" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="R3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="V3" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="76" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="56" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="55">
+      <c r="Y3" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z3" s="76">
         <v>0.75</v>
       </c>
-      <c r="L3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="55">
-        <v>33</v>
-      </c>
-      <c r="P3" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="T3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="66"/>
+      <c r="AA3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD3" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF3" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" s="77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="71"/>
+      <c r="AB4" s="70"/>
+      <c r="AF4" s="79"/>
+      <c r="AG4" s="74"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C5" s="17"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="R3" r:id="rId1" xr:uid="{8B9B54B7-DDC1-474C-B14C-98C33EC016A5}"/>
-  </hyperlinks>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="F1:AG4">
+    <sortCondition ref="F1:AG1"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>